--- a/file/1.xlsx
+++ b/file/1.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3899049</v>
+        <v>6223006</v>
       </c>
       <c r="C2" s="2">
-        <v>42960</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4883362</v>
+        <v>4347481</v>
       </c>
       <c r="C3" s="2">
-        <v>42961</v>
+        <v>42949</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4714594</v>
+        <v>1721765</v>
       </c>
       <c r="C4" s="2">
-        <v>42962</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3188443</v>
+        <v>3740875</v>
       </c>
       <c r="C5" s="2">
-        <v>42963</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4976187</v>
+        <v>2488827</v>
       </c>
       <c r="C6" s="2">
-        <v>42964</v>
+        <v>42952</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2300739</v>
+        <v>1827919</v>
       </c>
       <c r="C7" s="2">
-        <v>42965</v>
+        <v>42953</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4211225</v>
+        <v>3136932</v>
       </c>
       <c r="C8" s="2">
-        <v>42966</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4957748</v>
+        <v>3671248</v>
       </c>
       <c r="C9" s="2">
-        <v>42967</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5719060</v>
+        <v>2021511</v>
       </c>
       <c r="C10" s="2">
-        <v>42968</v>
+        <v>42956</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2615170</v>
+        <v>3506292</v>
       </c>
       <c r="C11" s="2">
-        <v>42969</v>
+        <v>42957</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2331414</v>
+        <v>4436521</v>
       </c>
       <c r="C12" s="2">
-        <v>42970</v>
+        <v>42958</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5199411</v>
+        <v>3902471</v>
       </c>
       <c r="C13" s="2">
-        <v>42971</v>
+        <v>42959</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2729293</v>
+        <v>3899049</v>
       </c>
       <c r="C14" s="2">
-        <v>42972</v>
+        <v>42960</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4494490</v>
+        <v>4883362</v>
       </c>
       <c r="C15" s="2">
-        <v>42973</v>
+        <v>42961</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4600889</v>
+        <v>4714594</v>
       </c>
       <c r="C16" s="2">
-        <v>42974</v>
+        <v>42962</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3142328</v>
+        <v>3188443</v>
       </c>
       <c r="C17" s="2">
-        <v>42975</v>
+        <v>42963</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2881315</v>
+        <v>4976187</v>
       </c>
       <c r="C18" s="2">
-        <v>42976</v>
+        <v>42964</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4098343</v>
+        <v>2300739</v>
       </c>
       <c r="C19" s="2">
-        <v>42977</v>
+        <v>42965</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,9 +598,141 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <v>4211225</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>4957748</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5719060</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2615170</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2331414</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>5199411</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2729293</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>4494490</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>4600889</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3142328</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2881315</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4098343</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>2823282</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C32" s="2">
         <v>42978</v>
       </c>
     </row>

--- a/file/1.xlsx
+++ b/file/1.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6223006</v>
+        <v>2821930</v>
       </c>
       <c r="C2" s="2">
-        <v>42948</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4347481</v>
+        <v>2962519</v>
       </c>
       <c r="C3" s="2">
-        <v>42949</v>
+        <v>42928</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1721765</v>
+        <v>2437167</v>
       </c>
       <c r="C4" s="2">
-        <v>42950</v>
+        <v>42929</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3740875</v>
+        <v>4162695</v>
       </c>
       <c r="C5" s="2">
-        <v>42951</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2488827</v>
+        <v>5328448</v>
       </c>
       <c r="C6" s="2">
-        <v>42952</v>
+        <v>42931</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1827919</v>
+        <v>5489553</v>
       </c>
       <c r="C7" s="2">
-        <v>42953</v>
+        <v>42932</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3136932</v>
+        <v>2572743</v>
       </c>
       <c r="C8" s="2">
-        <v>42954</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3671248</v>
+        <v>2714444</v>
       </c>
       <c r="C9" s="2">
-        <v>42955</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2021511</v>
+        <v>3730023</v>
       </c>
       <c r="C10" s="2">
-        <v>42956</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3506292</v>
+        <v>4119049</v>
       </c>
       <c r="C11" s="2">
-        <v>42957</v>
+        <v>42936</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4436521</v>
+        <v>4835203</v>
       </c>
       <c r="C12" s="2">
-        <v>42958</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3902471</v>
+        <v>4405191</v>
       </c>
       <c r="C13" s="2">
-        <v>42959</v>
+        <v>42938</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3899049</v>
+        <v>4008369</v>
       </c>
       <c r="C14" s="2">
-        <v>42960</v>
+        <v>42939</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4883362</v>
+        <v>4413128</v>
       </c>
       <c r="C15" s="2">
-        <v>42961</v>
+        <v>42940</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4714594</v>
+        <v>4576995</v>
       </c>
       <c r="C16" s="2">
-        <v>42962</v>
+        <v>42941</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3188443</v>
+        <v>3393748</v>
       </c>
       <c r="C17" s="2">
-        <v>42963</v>
+        <v>42942</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4976187</v>
+        <v>3509003</v>
       </c>
       <c r="C18" s="2">
-        <v>42964</v>
+        <v>42943</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2300739</v>
+        <v>5380751</v>
       </c>
       <c r="C19" s="2">
-        <v>42965</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4211225</v>
+        <v>4208870</v>
       </c>
       <c r="C20" s="2">
-        <v>42966</v>
+        <v>42945</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4957748</v>
+        <v>2178757</v>
       </c>
       <c r="C21" s="2">
-        <v>42967</v>
+        <v>42946</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5719060</v>
+        <v>4242757</v>
       </c>
       <c r="C22" s="2">
-        <v>42968</v>
+        <v>42947</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2615170</v>
+        <v>6223006</v>
       </c>
       <c r="C23" s="2">
-        <v>42969</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2331414</v>
+        <v>4347481</v>
       </c>
       <c r="C24" s="2">
-        <v>42970</v>
+        <v>42949</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5199411</v>
+        <v>1721765</v>
       </c>
       <c r="C25" s="2">
-        <v>42971</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2729293</v>
+        <v>3740875</v>
       </c>
       <c r="C26" s="2">
-        <v>42972</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4494490</v>
+        <v>2488827</v>
       </c>
       <c r="C27" s="2">
-        <v>42973</v>
+        <v>42952</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4600889</v>
+        <v>1827919</v>
       </c>
       <c r="C28" s="2">
-        <v>42974</v>
+        <v>42953</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3142328</v>
+        <v>3136932</v>
       </c>
       <c r="C29" s="2">
-        <v>42975</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2881315</v>
+        <v>3671248</v>
       </c>
       <c r="C30" s="2">
-        <v>42976</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,10 +719,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4098343</v>
+        <v>2021511</v>
       </c>
       <c r="C31" s="2">
-        <v>42977</v>
+        <v>42956</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -730,10 +730,43 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2823282</v>
+        <v>3506292</v>
       </c>
       <c r="C32" s="2">
-        <v>42978</v>
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4436521</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3902471</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3899049</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42960</v>
       </c>
     </row>
   </sheetData>

--- a/file/1.xlsx
+++ b/file/1.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Total</t>
   </si>
   <si>
+    <t>VOLUMEID</t>
+  </si>
+  <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>1HS_V001</t>
+  </si>
+  <si>
+    <t>2HS_V001</t>
   </si>
 </sst>
 </file>
@@ -381,392 +390,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2821930</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42927</v>
+        <v>1734392</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42926</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2962519</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42928</v>
+        <v>1399261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42926</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2437167</v>
-      </c>
-      <c r="C4" s="2">
-        <v>42929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4162695</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42930</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5328448</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5489553</v>
-      </c>
-      <c r="C7" s="2">
-        <v>42932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2572743</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2714444</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3730023</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4119049</v>
-      </c>
-      <c r="C11" s="2">
-        <v>42936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4835203</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>4405191</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>4008369</v>
-      </c>
-      <c r="C14" s="2">
-        <v>42939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4413128</v>
-      </c>
-      <c r="C15" s="2">
-        <v>42940</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>4576995</v>
-      </c>
-      <c r="C16" s="2">
-        <v>42941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3393748</v>
-      </c>
-      <c r="C17" s="2">
-        <v>42942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3509003</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>5380751</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>4208870</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>2178757</v>
-      </c>
-      <c r="C21" s="2">
-        <v>42946</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>4242757</v>
-      </c>
-      <c r="C22" s="2">
-        <v>42947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>6223006</v>
-      </c>
-      <c r="C23" s="2">
-        <v>42948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>4347481</v>
-      </c>
-      <c r="C24" s="2">
-        <v>42949</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>1721765</v>
-      </c>
-      <c r="C25" s="2">
-        <v>42950</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>3740875</v>
-      </c>
-      <c r="C26" s="2">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>2488827</v>
-      </c>
-      <c r="C27" s="2">
-        <v>42952</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1827919</v>
-      </c>
-      <c r="C28" s="2">
-        <v>42953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>3136932</v>
-      </c>
-      <c r="C29" s="2">
-        <v>42954</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3671248</v>
-      </c>
-      <c r="C30" s="2">
-        <v>42955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>2021511</v>
-      </c>
-      <c r="C31" s="2">
-        <v>42956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>3506292</v>
-      </c>
-      <c r="C32" s="2">
-        <v>42957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>4436521</v>
-      </c>
-      <c r="C33" s="2">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>3902471</v>
-      </c>
-      <c r="C34" s="2">
-        <v>42959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>3899049</v>
-      </c>
-      <c r="C35" s="2">
-        <v>42960</v>
+        <v>3133653</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
